--- a/pred_ohlcv/54_21/2020-01-20 WAVES ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 WAVES ohlcv.xlsx
@@ -886,7 +886,7 @@
         <v>-5890.314400000001</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-6090.314400000001</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-5866.170900000001</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-5961.911100000001</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-5961.911100000001</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>5622.3334</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-5400.231100000001</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-5037.289300000001</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-2025.868600000001</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-2025.868600000001</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-2025.868600000001</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-3525.868600000001</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-5046.667500000001</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-5102.865100000002</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-3657.999400000002</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-3618.982600000002</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>1350.557499999998</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>320.6153999999981</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-975.5078000000019</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1029.007800000002</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-1029.007800000002</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-723.4069000000019</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-10421.661</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-8353.942100000002</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-10430.1576</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-10061.5129</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-10061.5129</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-10086.5129</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-10086.5129</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-10009.7008</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-6482.101100000002</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-6472.353400000002</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-6582.523400000002</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-8062.936400000002</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-9446.295000000002</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-9446.295000000002</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-17546.9816</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-17546.3816</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-17545.8816</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-17545.3816</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-19180.24170000001</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-19242.83240000001</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-18405.42310000001</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-20205.41300000001</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-20160.47160000001</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-20165.47160000001</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-20181.79910000001</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-20488.91560000001</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-20488.91560000001</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-21397.64120000001</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-21350.85720000001</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-21350.85720000001</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-21350.85720000001</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-20820.90010000001</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-22704.29110000001</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-22664.00610000001</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-80074.73063224998</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-79009.73083224997</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-75725.86383224996</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-81442.07663224995</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-79990.96493224996</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-80717.67943224996</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-80189.59053224997</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-82540.42313224997</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-72211.08873224998</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-72436.61513224998</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-72214.96953224998</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-72214.96953224998</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-20 WAVES ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 WAVES ohlcv.xlsx
@@ -886,7 +886,7 @@
         <v>-5890.314400000001</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-6090.314400000001</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-5866.170900000001</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-5961.911100000001</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-5961.911100000001</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>5622.3334</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-5400.231100000001</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-5037.289300000001</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-2025.868600000001</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-2025.868600000001</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-3525.868600000001</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-5046.667500000001</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-5102.865100000002</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-3618.982600000002</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>1350.557499999998</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>320.6153999999981</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-975.5078000000019</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1029.007800000002</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-1029.007800000002</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-723.4069000000019</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-10421.661</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-8353.942100000002</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-10009.7008</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-10407.7008</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-9446.295000000002</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-9446.295000000002</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-17546.9816</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-17546.3816</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-17545.8816</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-17545.3816</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-19180.24170000001</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-19242.83240000001</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-18405.42310000001</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-20205.41300000001</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-20160.47160000001</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-20165.47160000001</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-20181.79910000001</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-20488.91560000001</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-20488.91560000001</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-21397.64120000001</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-21350.85720000001</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-21350.85720000001</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-21350.85720000001</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-20820.90010000001</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-22704.29110000001</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-22664.00610000001</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-80717.67943224996</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-80189.59053224997</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-82540.42313224997</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-72211.08873224998</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-72436.61513224998</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-72214.96953224998</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-72214.96953224998</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-72227.47083445998</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-75145.93713445998</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
